--- a/app/src/main/assets/collegelist.xlsx
+++ b/app/src/main/assets/collegelist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priyesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sss\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="PDFTables.com" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="456">
   <si>
     <t>ID</t>
   </si>
@@ -1222,15 +1221,6 @@
     <t>83064d706</t>
   </si>
   <si>
-    <t>SMST</t>
-  </si>
-  <si>
-    <t>SMS Testing</t>
-  </si>
-  <si>
-    <t>a3a49e367</t>
-  </si>
-  <si>
     <t>SNC</t>
   </si>
   <si>
@@ -1337,15 +1327,6 @@
   </si>
   <si>
     <t>eb969656a</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>Test College</t>
-  </si>
-  <si>
-    <t>2a86cc159</t>
   </si>
   <si>
     <t>TIWC</t>
@@ -1783,10 +1764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1848,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2747,7 +2728,7 @@
         <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C87" t="s">
         <v>258</v>
@@ -3305,13 +3286,13 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3488,28 +3469,6 @@
       </c>
       <c r="C154" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>454</v>
-      </c>
-      <c r="B155" t="s">
-        <v>455</v>
-      </c>
-      <c r="C155" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>457</v>
-      </c>
-      <c r="B156" t="s">
-        <v>458</v>
-      </c>
-      <c r="C156" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
